--- a/output/google_maps_data_Samsat_Daerah_Istimewa_Yogyakarta.xlsx
+++ b/output/google_maps_data_Samsat_Daerah_Istimewa_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Samsat+Kota+Yogyakarta/@-7.7881301,110.3231202,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a58230d2b0443:0xd01eb1495f365ba4!8m2!3d-7.7881301!4d110.3591691!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmtjRkJwY1hwM1JSQULgAQD6AQUIwAgQNg!16s%2Fg%2F1hm57qvbl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,21 +524,20 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="E3" t="n">
         <v>4.7</v>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Kelurahan+Wirogunan/@-7.7881301,110.3231202,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a579c32ef4e79:0xadef50103906043d!8m2!3d-7.8102878!4d110.3758205!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhVWsyVXpSQlJSQULgAQD6AQQIABAo!16s%2Fg%2F11ggjzmsz9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Kelurahan+Wirogunan/@-7.7881301,110.3231202,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a579c32ef4e79:0xadef50103906043d!8m2!3d-7.8102878!4d110.3758205!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhVWsyVXpSQlJSQULgAQD6AQQIABAo!16s%2Fg%2F11ggjzmsz9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -567,25 +560,24 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.83159</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.83159</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.390199</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Giwangan/@-7.8315899,110.3541503,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a57034db83fe1:0x2563e19eb111f86!8m2!3d-7.8315899!4d110.3901992!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhNemhpWkVaQkVBReABAPoBBAgvEBc!16s%2Fg%2F11bbyd64mv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Giwangan/@-7.8315899,110.3541503,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a57034db83fe1:0x2563e19eb111f86!8m2!3d-7.8315899!4d110.3901992!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhNemhpWkVaQkVBReABAPoBBAgvEBc!16s%2Fg%2F11bbyd64mv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -604,25 +596,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.841616</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.841616</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.362575</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Pembantu+Sewon/@-7.8416158,110.3265259,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a564c3c5c6421:0x9f412fcd139efdda!8m2!3d-7.8416158!4d110.3625748!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVYMWxMWWkxblJSQULgAQD6AQQIABA2!16s%2Fg%2F1pzr2k3x6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Pembantu+Sewon/@-7.8416158,110.3265259,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a564c3c5c6421:0x9f412fcd139efdda!8m2!3d-7.8416158!4d110.3625748!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVYMWxMWWkxblJSQULgAQD6AQQIABA2!16s%2Fg%2F1pzr2k3x6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -645,25 +636,24 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.699845</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.699845</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.346613</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Sleman/@-7.6998454,110.3105645,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5f438daf47c5:0x490baabce213a712!8m2!3d-7.6998454!4d110.3466134!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFaMlpZUXpWblJSQULgAQD6AQUI9RkQJw!16s%2Fg%2F11b8_pj912?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Sleman/@-7.6998454,110.3105645,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5f438daf47c5:0x490baabce213a712!8m2!3d-7.6998454!4d110.3466134!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFaMlpZUXpWblJSQULgAQD6AQUI9RkQJw!16s%2Fg%2F11b8_pj912?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -686,25 +676,24 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.783173</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.783173</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.426797</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Kab+Sleman/@-7.7831735,110.3907478,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5a72919f1c03:0x9e45d5ac0e4f334d!8m2!3d-7.7831735!4d110.4267967!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhOM0Y2VEV0bkVBReABAPoBBAgAED8!16s%2Fg%2F11cjj5bghn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Kab+Sleman/@-7.7831735,110.3907478,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5a72919f1c03:0x9e45d5ac0e4f334d!8m2!3d-7.7831735!4d110.4267967!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhOM0Y2VEV0bkVBReABAPoBBAgAED8!16s%2Fg%2F11cjj5bghn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -727,25 +716,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.782407</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.782407</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.37886</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SAMSAT+Galeria+Mall/@-7.7824073,110.3428109,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a59ccd63bad3f:0xab226217d97cdb69!8m2!3d-7.7824073!4d110.3788598!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTk1kV1F0ZG5sblJSQULgAQD6AQQIABBH!16s%2Fg%2F11c2pw5j4p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -768,25 +756,24 @@
           <t>(0274) 367483</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F9" t="n">
-        <v>3.9</v>
+        <v>-7.891765</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.891765</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.329852</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.293803,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhNRmxIVEVSUkVBReABAPoBBAgAEEQ!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.293803,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhNRmxIVEVSUkVBReABAPoBBAgAEEQ!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 menit lalu</t>
         </is>
@@ -813,25 +800,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.796721</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.796721</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.359831</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.3237816,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEWZHJpdmVyc19saWNlbnNlX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGNqWlVPVlpuRUFF4AEA-gEFCKAFEBc!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.3237816,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEWZHJpdmVyc19saWNlbnNlX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGNqWlVPVlpuRUFF4AEA-gEFCKAFEBc!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -854,25 +840,24 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>-7.698808</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.698808</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.347111</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Night+Drive+Thru/@-7.6988076,110.3110622,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5f9012c704fd:0x51aaa0da6cdf418f!8m2!3d-7.6988076!4d110.3471111!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRlbUoyUWtWQkVBReABAPoBBAgfEEc!16s%2Fg%2F11h80dw6y3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Night+Drive+Thru/@-7.6988076,110.3110622,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5f9012c704fd:0x51aaa0da6cdf418f!8m2!3d-7.6988076!4d110.3471111!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRlbUoyUWtWQkVBReABAPoBBAgfEEc!16s%2Fg%2F11h80dw6y3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -895,25 +880,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>-7.767271</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.767271</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.291872</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Godean/@-7.7672711,110.2558229,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7af7af097785a7:0x60670970710855e!8m2!3d-7.7672711!4d110.2918718!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9hSFpYVWs1M0VBReABAPoBBAgAECg!16s%2Fg%2F11ggn99cp5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Godean/@-7.7672711,110.2558229,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7af7af097785a7:0x60670970710855e!8m2!3d-7.7672711!4d110.2918718!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9hSFpYVWs1M0VBReABAPoBBAgAECg!16s%2Fg%2F11ggn99cp5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -932,25 +916,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>-7.783599</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.783599</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.427225</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Unit+Pelayanan+Pajak+Kendaraan+Bermotor/@-7.7835989,110.3911759,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5a02ad2cfa65:0xcfa2e292471cbceb!8m2!3d-7.7835989!4d110.4272248!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGGSARV0YXhfY29sbGVjdG9yc19vZmZpY2XgAQA!16s%2Fg%2F11g6bm0r05?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Unit+Pelayanan+Pajak+Kendaraan+Bermotor/@-7.7835989,110.3911759,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5a02ad2cfa65:0xcfa2e292471cbceb!8m2!3d-7.7835989!4d110.4272248!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGGSARV0YXhfY29sbGVjdG9yc19vZmZpY2XgAQA!16s%2Fg%2F11g6bm0r05?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -973,25 +956,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.972695</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.972695</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.610296</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Kabupaten+Gunungkidul/@-7.9726951,110.574247,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7bb35ecc8e69e9:0x4da5c54f4607bc3d!8m2!3d-7.9726951!4d110.6102959!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROM1UyYlV0UkVBReABAPoBBAg4EDE!16s%2Fg%2F1pzrk2_np?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Kabupaten+Gunungkidul/@-7.9726951,110.574247,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7bb35ecc8e69e9:0x4da5c54f4607bc3d!8m2!3d-7.9726951!4d110.6102959!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnROM1UyYlV0UkVBReABAPoBBAg4EDE!16s%2Fg%2F1pzrk2_np?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>17 jam lalu</t>
         </is>
@@ -1018,25 +1000,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>-7.811148</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.811148</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.363293</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta+(Malam+Minggu)/@-7.8111484,110.3272441,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5825f39182c1:0x2e76d81744f1d8bd!8m2!3d-7.8111484!4d110.363293!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEWZHJpdmVyc19saWNlbnNlX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcWJqaDVWV1IzRUFF4AEA-gEFCLQBEBM!16s%2Fg%2F11f126qsrg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta+(Malam+Minggu)/@-7.8111484,110.3272441,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5825f39182c1:0x2e76d81744f1d8bd!8m2!3d-7.8111484!4d110.363293!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEWZHJpdmVyc19saWNlbnNlX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcWJqaDVWV1IzRUFF4AEA-gEFCLQBEBM!16s%2Fg%2F11f126qsrg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1059,25 +1040,24 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>-7.803786</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.803786</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.273139</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Desa+Argomulyo/@-7.8037857,110.2370901,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7af9d70e7d5935:0x74b1b0d97a25a6b2!8m2!3d-7.8037857!4d110.273139!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkthSEZsYlZCM0VBReABAPoBBAhVEAw!16s%2Fg%2F11hbkfgy5j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Desa+Argomulyo/@-7.8037857,110.2370901,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7af9d70e7d5935:0x74b1b0d97a25a6b2!8m2!3d-7.8037857!4d110.273139!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkthSEZsYlZCM0VBReABAPoBBAhVEAw!16s%2Fg%2F11hbkfgy5j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1104,25 +1084,24 @@
           <t>(0274) 773166</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>-7.866007</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.866007</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.166885</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Samsat+Kulon+Progo/@-7.8660073,110.1308364,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7afb151fab6109:0x1bfd19f67d32b65e!8m2!3d-7.8660073!4d110.1668853!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnBObUY2Y25CUlJSQULgAQD6AQUIoAMQNA!16s%2Fg%2F11b764phdq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1141,25 +1120,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.65915</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.65915</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.421957</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SAMSAT+Desa+Pakembinangun/@-7.6591497,110.385908,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a5e7767965c1f:0x718a04d5b44b652d!8m2!3d-7.6591497!4d110.4219569!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxNbVl6VkZoM0VBReABAPoBBAgAEC8!16s%2Fg%2F11c75xb9h2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1178,25 +1156,24 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.700386</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.700386</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.288302</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Desa+Banyurejo/@-7.7003861,110.2522534,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7af5cbc4f07cc3:0x8c3bf25acddec6fd!8m2!3d-7.7003861!4d110.2883023!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXpjMGw1VjNwQlJSQULgAQD6AQQIPRA-!16s%2Fg%2F11hbg9fzh_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Desa+Banyurejo/@-7.7003861,110.2522534,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7af5cbc4f07cc3:0x8c3bf25acddec6fd!8m2!3d-7.7003861!4d110.2883023!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXpjMGw1VjNwQlJSQULgAQD6AQQIPRA-!16s%2Fg%2F11hbg9fzh_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1219,25 +1196,24 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>-7.909396</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.909396</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.393238</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SAMSAT+DESA+KALURAHAN+WUKIRSARI/@-7.9093959,110.3571895,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a55e8a3342569:0x128b8de84e0e10fe!8m2!3d-7.9093959!4d110.3932384!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEObGljZW5zZV9idXJlYXWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRPR0pJWVhkUlJSQULgAQD6AQQIExAO!16s%2Fg%2F11n0mynv5b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1260,25 +1236,24 @@
           <t>0896-7503-0009</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.6</v>
+        <v>-7.801405</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.801405</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.375896</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta/@-7.8014052,110.339847,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a574244da90a5:0x6989a5b50a64f233!8m2!3d-7.8014052!4d110.3758959!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEWZHJpdmVyc19saWNlbnNlX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMU5FMWxabGxuRUFF4AEA-gEFCNcDECY!16s%2Fg%2F11t__gfcj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta/@-7.8014052,110.339847,14z/data=!4m10!1m2!2m1!1sSamsat+Daerah+Istimewa+Yogyakarta!3m6!1s0x2e7a574244da90a5:0x6989a5b50a64f233!8m2!3d-7.8014052!4d110.3758959!15sCiFTYW1zYXQgRGFlcmFoIElzdGltZXdhIFlvZ3lha2FydGFaIyIhc2Ftc2F0IGRhZXJhaCBpc3RpbWV3YSB5b2d5YWthcnRhkgEWZHJpdmVyc19saWNlbnNlX29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMU5FMWxabGxuRUFF4AEA-gEFCNcDECY!16s%2Fg%2F11t__gfcj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
